--- a/เป้าหมาย.xlsx
+++ b/เป้าหมาย.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>What</t>
   </si>
@@ -357,19 +357,74 @@
   </si>
   <si>
     <t>การพยากรณ์ฝนระยะยาว</t>
+  </si>
+  <si>
+    <t>ระบบติดตาม/เฝ้าระวังฝน กทม. และ EEC</t>
+  </si>
+  <si>
+    <t>การวิเคราะห์การใช้น้ำของพืชบนแผนที่ภูมิศาสตร์และภาพถ่ายดาวเทียม ในรูปแบบสารสนเทศภูมิศาสตร์</t>
+  </si>
+  <si>
+    <t>วิเคราะห์พฤติกรรมการใช้น้ำตามการเพาะปลูกและข้อมูลการจัดสรรน้ำ ในรูปแบบภูมิสารสนเทศ</t>
+  </si>
+  <si>
+    <t>นำเสนอข้อมูล Dashboard (water-informatics)
+ - สำหรับประชาชน
+ - หน่วยงาน / expert</t>
+  </si>
+  <si>
+    <t>ระบบจัดเก็บข้อมูลภูมิสารสนเทศ (map repository)</t>
+  </si>
+  <si>
+    <t>ระบบจัดการข่าวด้านน้ำ (Social Network,News)</t>
+  </si>
+  <si>
+    <t>หน่วยงานด้านทรัพยากรน้ำ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '- Data Integration
+ใช้ข้อมูลฝนพยากรณ์ที่วิเคราะห์แล้ว จาก อต. สสนก.
+- Data visualization
+จัดทำการนำเสนอข้อมูลแจงแจงข้อมูล ในระดับลุ่มน้ำ จังหวัด อำเภอ โครงการชลประทาน</t>
+  </si>
+  <si>
+    <t>- Data Integration
+ใช้ข้อมูลฝนพยากรณ์ที่วิเคราะห์แล้ว จาก อต. สสนก.
+- Data visualization
+จัดทำการนำเสนอข้อมูลแจงแจงข้อมูล ในระดับลุ่มน้ำ และภูมิภาค</t>
+  </si>
+  <si>
+    <t>- Data Integration
+การนำเข้าข้อมูลจากหน่วยงานด้านทรัพยากรน้ำทั้งหมด
+- Data Analysis
+จัดเตรียมข้อมูลต่าง ๆ ให้อยู่ในรูปแบบมาตรฐานและแยกเป็นหมวดหมู่
+- Data Distribution
+จัดทำระบบให้หน่วยงานต่าง ๆด้านทรัพยากรน้ำทั้งหมด สามารถเข้าใช้ข้อมูลตามภารกิจได้</t>
+  </si>
+  <si>
+    <t>คะแนนความยาก</t>
+  </si>
+  <si>
+    <t>คะแนนผู้ที่เกี่ยวข้อง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -430,6 +485,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="NP NaipolTemplate"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -465,38 +526,127 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="42">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -892,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1319,7 +1469,7 @@
       <c r="G30" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
@@ -1335,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G34"/>
+  <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1347,7 +1497,7 @@
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7">
+    <row r="1" spans="2:7">
       <c r="C1" s="5" t="s">
         <v>80</v>
       </c>
@@ -1364,7 +1514,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="3:7">
+    <row r="2" spans="2:7">
       <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
@@ -1372,72 +1522,73 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="2:7">
       <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="2:7">
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="2:7">
       <c r="C5" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="2:7">
       <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="2:7">
       <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="2:7">
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="2:7">
       <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="2:7">
       <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="2:7">
       <c r="C11" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="2:7">
       <c r="C12" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="2:7">
       <c r="C13" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="2:7">
       <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="2:7">
       <c r="C15" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="2:7">
       <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
@@ -1535,6 +1686,7 @@
   </sheetData>
   <autoFilter ref="C1:C27"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1547,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1648,6 +1800,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1658,216 +1811,285 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E43"/>
+  <dimension ref="C3:H44"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" ht="23">
-      <c r="C2" s="8" t="s">
+    <row r="3" spans="3:8" ht="23">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="3:5" ht="28" customHeight="1">
-      <c r="C3" s="11" t="s">
+      <c r="G3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="103" customHeight="1">
+      <c r="C4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="3:5" ht="28" customHeight="1">
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="95">
+      <c r="C5" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="3:5" ht="28" customHeight="1">
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="3:5" ht="28" customHeight="1">
-      <c r="C6" s="11"/>
+    <row r="6" spans="3:8" ht="28" customHeight="1">
+      <c r="C6" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="3:5" ht="28" customHeight="1">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="3:5" ht="28" customHeight="1">
-      <c r="C8" s="11"/>
+    <row r="7" spans="3:8" ht="190">
+      <c r="C7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="28" customHeight="1">
+      <c r="C8" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="3:5" ht="28" customHeight="1">
-      <c r="C9" s="11"/>
+    <row r="9" spans="3:8" ht="28" customHeight="1">
+      <c r="C9" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="3:5" ht="28" customHeight="1">
-      <c r="C10" s="11"/>
+    <row r="10" spans="3:8" ht="28" customHeight="1">
+      <c r="C10" s="15"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="3:5" ht="28" customHeight="1">
-      <c r="C11" s="11"/>
+    <row r="11" spans="3:8" ht="28" customHeight="1">
+      <c r="C11" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="3:5" ht="28" customHeight="1">
-      <c r="C12" s="11"/>
+    <row r="12" spans="3:8" ht="57">
+      <c r="C12" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="3:5" ht="28" customHeight="1">
-      <c r="C13" s="11"/>
+    <row r="13" spans="3:8" ht="28" customHeight="1">
+      <c r="C13" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="3:5" ht="28" customHeight="1">
-      <c r="C14" s="11"/>
+    <row r="14" spans="3:8" ht="28" customHeight="1">
+      <c r="C14" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="3:5" ht="28" customHeight="1">
-      <c r="C15" s="11"/>
+    <row r="15" spans="3:8" ht="28" customHeight="1">
+      <c r="C15" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="3:5" ht="28" customHeight="1">
-      <c r="C16" s="11"/>
+    <row r="16" spans="3:8" ht="28" customHeight="1">
+      <c r="C16" s="15"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="3:5" ht="28" customHeight="1">
-      <c r="C17" s="11"/>
+      <c r="C17" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="3:5" ht="28" customHeight="1">
-      <c r="C18" s="11"/>
+    <row r="18" spans="3:5" ht="19">
+      <c r="C18" s="12"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="3:5" ht="28" customHeight="1">
-      <c r="C19" s="11"/>
+    <row r="19" spans="3:5" ht="38">
+      <c r="C19" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="3:5" ht="28" customHeight="1">
-      <c r="C20" s="11"/>
+    <row r="20" spans="3:5" ht="38">
+      <c r="C20" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="3:5" ht="28" customHeight="1">
-      <c r="C21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="3:5" ht="28" customHeight="1">
-      <c r="C22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="3:5" ht="28" customHeight="1">
-      <c r="C23" s="11"/>
+      <c r="C23" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="3:5" ht="28" customHeight="1">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="3:5" ht="28" customHeight="1">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="3:5" ht="28" customHeight="1">
-      <c r="C26" s="10"/>
+      <c r="C26" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="3:5" ht="28" customHeight="1">
-      <c r="C27" s="10"/>
+      <c r="C27" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="3:5" ht="28" customHeight="1">
-      <c r="C28" s="10"/>
+      <c r="C28" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="3:5" ht="28" customHeight="1">
-      <c r="C29" s="10"/>
+      <c r="C29" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="3:5" ht="28" customHeight="1">
-      <c r="C30" s="10"/>
+      <c r="C30" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="3:5" ht="28" customHeight="1">
-      <c r="C31" s="10"/>
+      <c r="C31" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="3:5" ht="28" customHeight="1">
-      <c r="C32" s="10"/>
+      <c r="C32" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="3:5" ht="28" customHeight="1">
-      <c r="C33" s="10"/>
+      <c r="C33" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="3:5" ht="28" customHeight="1">
-      <c r="C34" s="10"/>
+      <c r="C34" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="3:5" ht="28" customHeight="1">
-      <c r="C35" s="10"/>
+      <c r="C35" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="3:5" ht="28" customHeight="1">
-      <c r="C36" s="10"/>
+      <c r="C36" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="3:5" ht="28" customHeight="1">
-      <c r="C37" s="10"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="3:5" ht="28" customHeight="1">
-      <c r="C38" s="10"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="3:5" ht="16">
-      <c r="C39" s="10"/>
+    <row r="39" spans="3:5" ht="28" customHeight="1">
+      <c r="C39" s="14"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
@@ -1890,6 +2112,11 @@
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="3:5" ht="16">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/เป้าหมาย.xlsx
+++ b/เป้าหมาย.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\curent\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +22,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
   <si>
     <t>What</t>
   </si>
@@ -382,41 +387,173 @@
     <t>หน่วยงานด้านทรัพยากรน้ำ</t>
   </si>
   <si>
-    <t xml:space="preserve"> '- Data Integration
-ใช้ข้อมูลฝนพยากรณ์ที่วิเคราะห์แล้ว จาก อต. สสนก.
+    <t>ศูนย์กลาง รายงานการศึกษา/งานวิจัยด้านน้ำ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '- Data ingestion
+ใช้ข้อมูลฝนพยากรณ์ที่วิเคราะห์แล้ว จาก อต. สสนก. [ความถี่:รายชั่วโมง/รายวัน] [ครอบคลุม:ลุ่มน้ำ,จังหวัด,อำเภอ,ขอบเขตโครงการชลประทาน]
 - Data visualization
-จัดทำการนำเสนอข้อมูลแจงแจงข้อมูล ในระดับลุ่มน้ำ จังหวัด อำเภอ โครงการชลประทาน</t>
-  </si>
-  <si>
-    <t>- Data Integration
-ใช้ข้อมูลฝนพยากรณ์ที่วิเคราะห์แล้ว จาก อต. สสนก.
+จัดทำการนำเสนอข้อมูลแจงแจงข้อมูล ในระดับลุ่มน้ำ จังหวัด อำเภอ โครงการชลประทาน  [ความถี่:รายชั่วโมง/รายวัน] [ครอบคลุม:ลุ่มน้ำ,จังหวัด,อำเภอ,ขอบเขตโครงการชลประทาน]</t>
+  </si>
+  <si>
+    <t>- Data ingestion
+ใช้ข้อมูลฝนพยากรณ์ที่วิเคราะห์แล้ว จาก อต. สสนก. [ความถี่:รายเดือน/ราย3เดือน/ราย6เดือน/รายปี] [ครอบคลุม:ลุ่มน้ำ,จังหวัด,อำเภอ,ขอบเขตโครงการชลประทาน]
 - Data visualization
-จัดทำการนำเสนอข้อมูลแจงแจงข้อมูล ในระดับลุ่มน้ำ และภูมิภาค</t>
-  </si>
-  <si>
-    <t>- Data Integration
+จัดทำการนำเสนอข้อมูลแจงแจงข้อมูล ในระดับลุ่มน้ำ และภูมิภาค[ความถี่:รายเดือน/ราย3เดือน/ราย6เดือน/รายปี] [ครอบคลุม:ลุ่มน้ำ,จังหวัด,อำเภอ,ขอบเขตโครงการชลประทาน]</t>
+  </si>
+  <si>
+    <t>- Data Input
+การนำเข้าข้อมูลจากหน่วยงานด้านทรัพยากรน้ำทั้งหมด
+- Data Analysis
+จัดเตรียมข้อมูลต่าง ๆ ให้อยู่ในรูปแบบมาตรฐานและแยกเป็นหมวดหมู่
+- Data Integration
+จัดทำระบบให้หน่วยงานต่าง ๆด้านทรัพยากรน้ำทั้งหมด สามารถเข้าใช้ข้อมูลตามภารกิจได้ (ผ่าน APIs)</t>
+  </si>
+  <si>
+    <t>- Data Input
+การนำเข้าข้อมูล(รายงานการศึกษา /งานวิจัยต่าง ๆ)จากหน่วยงานด้านทรัพยากรน้ำทั้งหมด และสถาบันการศึกษา
+- Data Analysis
+จัดเตรียมข้อมูลต่าง ๆ ให้อยู่ในรูปแบบมาตรฐานและแยกเป็นหมวดหมู่
+- Data Distribution
+จัดทำระบบให้หน่วยงานต่าง ๆด้านทรัพยากรน้ำทั้งหมด สามารถเข้าใช้ข้อมูลตามภารกิจได้ (ผ่าน APIs)</t>
+  </si>
+  <si>
+    <t>ระบบให้คะแนน โครงการพัฒนาแหล่งน้ำตามยุทธศาสตร์เบื้องต้น</t>
+  </si>
+  <si>
+    <t>ปปช. หน่วยงาน</t>
+  </si>
+  <si>
+    <t>กรมชลประทาน, กรมเจ้าท่า ,กรมป้องกันและบรรเทาสาธารณภัย,กระทรวงมหาดไทย อื่น ๆ</t>
+  </si>
+  <si>
+    <t>data source</t>
+  </si>
+  <si>
+    <t>APIs,file,ftp,IoT</t>
+  </si>
+  <si>
+    <t>APIs,file,ftp</t>
+  </si>
+  <si>
+    <t>หน่วยงานด้านทรัพยากรน้ำ ปชช.</t>
+  </si>
+  <si>
+    <t>Report บทวิเคราะห์สถานการณ์น้ำ/แจ้งเตือนในแต่ละวัน</t>
+  </si>
+  <si>
+    <t>line,mail,widget</t>
+  </si>
+  <si>
+    <t>-Data Ingrestion [ความถี่:รายวัน/ตามสถานการณ์] [ครอบคลุม:ลุ่มน้ำ,ลำน้ำ,จุดควบคุมต่าง ๆ]
+  - ข้อมูลการพยากรณ์ฝน 
+  - ข้อมูลฝนปัจุบัน
+  - ข้อมูลน้ำท่าปัจุบัน
+- Data Analysis  [ความถี่:รายวัน/ตามสถานการณ์] 
+  - จัดทำเตรียมข้อมูลโครงข่ายน้ำสำหรับเตรียมการวิเคราะห์
+  - เกณฑ์ error ผลลัพธ์ที่ยอมรับได้
+  - ตรวจสอบข้อมูลก่อนนำเข้าการวิเคราะห์
+  - แปลงผลลัพธ์คู่กับเกณฑ์เตือนภัยต่างๆ
+- Data visualization [ความถี่:รายวัน/ตามสถานการณ์] 
+จัดทำการนำเสนอข้อมูลแจงแจงข้อมูลในรูปแบบ กราฟ ในแต่แม่น้ำและจุดที่สำคัญ
+นำเสนอแบบ 2D/3D พร้อมแจ้งเตือนภัยจุดสำคัญ และแสดงจุดช่วยเหลือ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Data Ingrestion
+การนำเข้าข้อมูล(ที่มีการวิเคราะห์แล้ว) จากหน่วยงานด้านทรัพยากรน้ำทั้งหมด หรือจากการวิเคราะห์โดย สทนช.เอง
+- Data Visualization
+  - สำหรับประชาชน
+ - แสดงผลข้อมูลวิเคราะห์อย่างง่าย 
+   - สำหรับ หน่วยงาน 
+ - แสดงผลข้อมูลวิเคราะห์ระดับสูง
+* หัวข้อนำเสนอ สถานการณ์ฝน สถานการณ์น้ำท่า ปริมาณน้ำในแหล่งน้ำ (ขนาดใหญ่/กลาง/เล็ก) สถานการณ์คุณภาพน้ำ  การแจ้งเตือน การเตรียมความพร้อม การช่วยเหลือ 
+</t>
+  </si>
+  <si>
+    <t>- Data Ingrestion
 การนำเข้าข้อมูลจากหน่วยงานด้านทรัพยากรน้ำทั้งหมด
 - Data Analysis
 จัดเตรียมข้อมูลต่าง ๆ ให้อยู่ในรูปแบบมาตรฐานและแยกเป็นหมวดหมู่
 - Data Distribution
-จัดทำระบบให้หน่วยงานต่าง ๆด้านทรัพยากรน้ำทั้งหมด สามารถเข้าใช้ข้อมูลตามภารกิจได้</t>
-  </si>
-  <si>
-    <t>คะแนนความยาก</t>
-  </si>
-  <si>
-    <t>คะแนนผู้ที่เกี่ยวข้อง</t>
+จัดทำระบบให้หน่วยงานต่าง ๆด้านทรัพยากรน้ำทั้งหมด สามารถเข้าใช้ข้อมูลตามภารกิจได้ (ผ่าน APIs)</t>
+  </si>
+  <si>
+    <t>- Data ingestion
+  - รวบรวมรวมบทวิเคราะห์จากหน่วยงานต่าง ๆ หรือของ สทนช.[ความถี่:รายวัน] [ครอบคลุม:ทั้งประเทศแจกแจงรายจังหวัด]
+- Data Analysis
+  - รวบและพิจารณาบทวิเคราะห์จากหน่วยงาน และจัดรูปแบบเพื่อ รายงานสถานการณ์ในภาพรวม
+  - เสนอรายงานต่อ นายกรัฐมนตรี
+  -  หากต้องมีการแจ้งเตือน ให้จัดทำรายงานแจ้งเตือนไปที่เหน่วยงานทันที 
+- Data visualization 
+  - รายงานสถานการณ์ในภาพรวม
+* หัวข้อนำเสนอ สถานการณ์ฝน สถานการณ์น้ำท่า ปริมาณน้ำในแหล่งน้ำ (ขนาดใหญ่/กลาง/เล็ก) สถานการณ์คุณภาพน้ำ  การแจ้งเตือน การเตรียมความพร้อม การช่วยเหลือ สถานการณ์ภัยแล้ง อุทกภัย</t>
+  </si>
+  <si>
+    <t>นายกรัฐมนตรี หน่วยงานด้านทรัพยากรน้ำ</t>
+  </si>
+  <si>
+    <t>หน่วยงานด้านทรัพยากรน้ำ กทม. EEC ปชช.</t>
+  </si>
+  <si>
+    <t>Database,APIs,file,ftp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '- Data ingestion
+  - ฝนปัจุบัน จาก อต. สสนก. กทม. หรือวิเคระห์จาก สทนช.[ความถี่:รายชั่วโมง] [ครอบคลุม:กรุงเทพฯ,EEC]
+  -ใช้ข้อมูลฝนพยากรณ์ที่วิเคราะห์แล้ว จาก อต. สสนก. กทม. หรือวิเคระห์จาก สทนช.[ความถี่:รายชั่วโมง] [ครอบคลุม:กรุงเทพฯ,EEC]
+- Data visualization
+จัดทำการนำเสนอข้อมูลแจงแจงข้อมูลในรูปแบบแผนที่ [ความถี่:รายชั่วโมง] [ครอบคลุม:กรุงเทพฯ,EEC]</t>
+  </si>
+  <si>
+    <t>Mobile Application เพื่อนำเสนอข้อมูลน้ำ</t>
+  </si>
+  <si>
+    <t>APIs,file,ftp,widget</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '- Data ingestion
+  - แผนงานโครงการต่าง ๆ ของแต่ละหน่วยงานทั้งหมด [ความถี่: รายปี(Historical data)] [ครอบคลุม:ทั้งประเทศแจกแจงรายจังหวัด]
+- Data Analysis
+  - รวบรวมแผนงานโครงการต่าง ๆ
+  - รวมยุทธศาสตร์และหลักเกณฑ์ความสำคัญต่าง ๆ ด้านการพัฒนาหรือปรับปรุงแหล่งน้ำ/ระบบระบายน้ำ 
+  - ให้คะแนนโดยหน่วยงานหรือผู้เชียวชาญ
+  -  Deep learning
+  -  Implementation
+- Application 
+  - ระบบให้คะแนน โครงการพัฒนาแหล่งน้ำตามยุทธศาสตร์เบื้องต้น ตามหลักเกณฑ์ และตามยุทธศาสตร์ทรัพยากรน้ำ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรมชลประทาน ,กรมทรัพยากรน้ำ </t>
+  </si>
+  <si>
+    <t>large file,shape,ftp,APIs</t>
+  </si>
+  <si>
+    <t>สทนช.</t>
+  </si>
+  <si>
+    <t>large file,shape,ftp,APIs,map service</t>
+  </si>
+  <si>
+    <t>Zocial Eye like</t>
+  </si>
+  <si>
+    <t>กรมชลประทาน กรมทรัพยกรน้ำบาดาล หน่วยงานด้านทรัพยากรน้ำ</t>
+  </si>
+  <si>
+    <t>data lake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -435,7 +572,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,7 +591,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -473,7 +610,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -481,7 +618,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -491,8 +628,14 @@
       <name val="NP NaipolTemplate"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +656,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +719,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -601,9 +750,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1042,7 +1210,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1052,18 +1220,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1089,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19">
+    <row r="2" spans="1:7" ht="24">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1104,7 +1272,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19">
+    <row r="3" spans="1:7" ht="24">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1115,7 +1283,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="19">
+    <row r="4" spans="1:7" ht="24">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1126,7 +1294,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="19">
+    <row r="5" spans="1:7" ht="24">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1137,7 +1305,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="19">
+    <row r="6" spans="1:7" ht="24">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1148,7 +1316,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="19">
+    <row r="7" spans="1:7" ht="24">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1159,7 +1327,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="19">
+    <row r="8" spans="1:7" ht="24">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1170,7 +1338,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="19">
+    <row r="9" spans="1:7" ht="24">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -1185,7 +1353,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="19">
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1198,7 +1366,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19">
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1211,7 +1379,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="19">
+    <row r="12" spans="1:7" ht="24">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1224,7 +1392,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="19">
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1237,7 +1405,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="19">
+    <row r="14" spans="1:7" ht="24">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1250,7 +1418,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="19">
+    <row r="15" spans="1:7" ht="24">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1263,7 +1431,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="19">
+    <row r="16" spans="1:7" ht="24">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1276,7 +1444,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="19">
+    <row r="17" spans="1:7" ht="24">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1289,7 +1457,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="38">
+    <row r="18" spans="1:7" ht="48">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1302,7 +1470,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="19">
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -1317,7 +1485,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="19">
+    <row r="20" spans="1:7" ht="24">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1330,7 +1498,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="19">
+    <row r="21" spans="1:7" ht="24">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1343,7 +1511,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="19">
+    <row r="22" spans="1:7" ht="24">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1356,7 +1524,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="19">
+    <row r="23" spans="1:7" ht="24">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1369,7 +1537,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="19">
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1382,7 +1550,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="38">
+    <row r="25" spans="1:7" ht="48">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1395,7 +1563,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="19">
+    <row r="26" spans="1:7" ht="24">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -1410,7 +1578,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="19">
+    <row r="27" spans="1:7" ht="24">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -1425,7 +1593,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="38">
+    <row r="28" spans="1:7" ht="48">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
@@ -1440,7 +1608,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="19">
+    <row r="29" spans="1:7" ht="24">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -1455,7 +1623,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="19">
+    <row r="30" spans="1:7" ht="24">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1487,13 +1655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="24"/>
   <cols>
-    <col min="3" max="3" width="96.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="96.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1699,101 +1867,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" ht="19">
+    <row r="1" spans="3:3" ht="24">
       <c r="C1" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="3:3" ht="19">
+    <row r="2" spans="3:3" ht="24">
       <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="3:3" ht="19">
+    <row r="3" spans="3:3" ht="24">
       <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="3:3" ht="19">
+    <row r="4" spans="3:3" ht="24">
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="19">
+    <row r="5" spans="3:3" ht="24">
       <c r="C5" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="3:3" ht="19">
+    <row r="6" spans="3:3" ht="24">
       <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="3:3" ht="19">
+    <row r="7" spans="3:3" ht="24">
       <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="3:3" ht="19">
+    <row r="8" spans="3:3" ht="24">
       <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="3:3" ht="19">
+    <row r="9" spans="3:3" ht="24">
       <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="3:3" ht="19">
+    <row r="10" spans="3:3" ht="24">
       <c r="C10" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="3:3" ht="19">
+    <row r="11" spans="3:3" ht="24">
       <c r="C11" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="3:3" ht="19">
+    <row r="12" spans="3:3" ht="24">
       <c r="C12" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="3:3" ht="19">
+    <row r="13" spans="3:3" ht="24">
       <c r="C13" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="3:3" ht="19">
+    <row r="14" spans="3:3" ht="24">
       <c r="C14" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="3:3" ht="19">
+    <row r="15" spans="3:3" ht="24">
       <c r="C15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="3:3" ht="19">
+    <row r="16" spans="3:3" ht="24">
       <c r="C16" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="19">
+    <row r="17" spans="3:3" ht="24">
       <c r="C17" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="19">
+    <row r="18" spans="3:3" ht="24">
       <c r="C18" s="4" t="s">
         <v>102</v>
       </c>
@@ -1813,314 +1981,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.375" customWidth="1"/>
+    <col min="4" max="4" width="39.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.625" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="23">
+    <row r="3" spans="3:8" ht="26.25">
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="103" customHeight="1">
+      <c r="G3" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="3:8" ht="216">
       <c r="C4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>116</v>
+      <c r="D4" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" ht="95">
+      <c r="G4" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="240">
       <c r="C5" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="3:8" ht="28" customHeight="1">
+      <c r="D5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="409.5">
       <c r="C6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="3:8" ht="190">
+      <c r="D6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="216">
       <c r="C7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>118</v>
+      <c r="D7" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" ht="28" customHeight="1">
+      <c r="G7" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="216">
       <c r="C8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="3:8" ht="28" customHeight="1">
+      <c r="D8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="240">
       <c r="C9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="3:8" ht="28" customHeight="1">
-      <c r="C10" s="15"/>
-      <c r="D10" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="27.95" customHeight="1">
+      <c r="C10" s="12"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="3:8" ht="28" customHeight="1">
-      <c r="C11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="11"/>
+    <row r="11" spans="3:8" ht="27.95" customHeight="1">
+      <c r="D11" s="19"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="3:8" ht="57">
+    <row r="12" spans="3:8" ht="336">
       <c r="C12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="3:8" ht="28" customHeight="1">
+      <c r="D12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="384">
       <c r="C13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="3:8" ht="28" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="216">
       <c r="C14" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="3:8" ht="28" customHeight="1">
+      <c r="D14" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="27.95" customHeight="1">
       <c r="C15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="3:8" ht="28" customHeight="1">
+        <v>138</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="27.95" customHeight="1">
       <c r="C16" s="15"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="3:5" ht="28" customHeight="1">
+    <row r="17" spans="3:7" ht="409.5">
       <c r="C17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="3:5" ht="19">
+        <v>121</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="24">
       <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="3:5" ht="38">
+    <row r="19" spans="3:7" ht="48">
       <c r="C19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="3:5" ht="38">
+      <c r="D19" s="19"/>
+      <c r="E19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="48">
       <c r="C20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="3:5" ht="28" customHeight="1">
+      <c r="D20" s="19"/>
+      <c r="E20" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="27.95" customHeight="1">
       <c r="C21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="3:5" ht="28" customHeight="1">
+      <c r="D21" s="19"/>
+      <c r="E21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="27.95" customHeight="1">
       <c r="C22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="3:5" ht="28" customHeight="1">
+      <c r="D22" s="19"/>
+      <c r="E22" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="27.95" customHeight="1">
       <c r="C23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="3:5" ht="28" customHeight="1">
+    <row r="24" spans="3:7" ht="27.95" customHeight="1">
       <c r="C24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="3:5" ht="28" customHeight="1">
+    <row r="25" spans="3:7" ht="27.95" customHeight="1">
       <c r="C25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="3:5" ht="28" customHeight="1">
+    <row r="26" spans="3:7" ht="27.95" customHeight="1">
       <c r="C26" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="3:5" ht="28" customHeight="1">
+    <row r="27" spans="3:7" ht="27.95" customHeight="1">
       <c r="C27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="3:5" ht="28" customHeight="1">
+      <c r="D27" s="20"/>
+      <c r="E27" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="27.95" customHeight="1">
       <c r="C28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="3:5" ht="28" customHeight="1">
+      <c r="D28" s="20"/>
+      <c r="E28" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="27.95" customHeight="1">
       <c r="C29" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="3:5" ht="28" customHeight="1">
+      <c r="D29" s="20"/>
+      <c r="E29" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="48">
       <c r="C30" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="3:5" ht="28" customHeight="1">
+      <c r="D30" s="20"/>
+      <c r="E30" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="27.95" customHeight="1">
       <c r="C31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="3:5" ht="28" customHeight="1">
+    <row r="32" spans="3:7" ht="27.95" customHeight="1">
       <c r="C32" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="3:5" ht="28" customHeight="1">
+    <row r="33" spans="3:5" ht="27.95" customHeight="1">
       <c r="C33" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="25" t="s">
+        <v>147</v>
+      </c>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="3:5" ht="28" customHeight="1">
+    <row r="34" spans="3:5" ht="27.95" customHeight="1">
       <c r="C34" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="3:5" ht="28" customHeight="1">
+    <row r="35" spans="3:5" ht="27.95" customHeight="1">
       <c r="C35" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="3:5" ht="28" customHeight="1">
+    <row r="36" spans="3:5" ht="27.95" customHeight="1">
       <c r="C36" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="3:5" ht="28" customHeight="1">
+    <row r="37" spans="3:5" ht="27.95" customHeight="1">
       <c r="C37" s="14"/>
-      <c r="D37" s="10"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="3:5" ht="28" customHeight="1">
+    <row r="38" spans="3:5" ht="27.95" customHeight="1">
       <c r="C38" s="14"/>
-      <c r="D38" s="10"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="3:5" ht="28" customHeight="1">
+    <row r="39" spans="3:5" ht="27.95" customHeight="1">
       <c r="C39" s="14"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="3:5" ht="16">
+    <row r="40" spans="3:5" ht="21.75">
       <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="3:5" ht="16">
+    <row r="41" spans="3:5" ht="21.75">
       <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="3:5" ht="16">
+    <row r="42" spans="3:5" ht="21.75">
       <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="3:5" ht="16">
+    <row r="43" spans="3:5" ht="21.75">
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="3:5" ht="16">
+    <row r="44" spans="3:5" ht="21.75">
       <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
